--- a/retailsys/data/errors.xlsx
+++ b/retailsys/data/errors.xlsx
@@ -22,44 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
-  <si>
-    <t>לא נמצא לקוח עם מספר הטלפון שהוזן, יש להזין מספר של מנוי פעיל תחת הלקוח</t>
-  </si>
-  <si>
-    <t>Ошибка на сайте</t>
-  </si>
-  <si>
-    <t>Заменить на</t>
-  </si>
-  <si>
-    <t>חזרה לטיפול יואל</t>
-  </si>
-  <si>
-    <t>פרטי לקוח שהוזנו לא תואמים אנא עדכן ונסה שנית</t>
-  </si>
-  <si>
-    <t>אירעה שגיאה. אנא נסו במועד מאוחר יותר</t>
-  </si>
-  <si>
-    <t>אחד מנתוני התשלום שהוזנו שגוי</t>
-  </si>
-  <si>
-    <t>מכסת המנויים ללקוח חורגת מהמותר</t>
-  </si>
-  <si>
-    <t>לקוח בטיפול משפטי</t>
-  </si>
-  <si>
-    <t>Флаг</t>
-  </si>
-  <si>
-    <t>Флаги</t>
-  </si>
-  <si>
-    <t>brute_numbers</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -87,18 +50,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,7 +70,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,13 +79,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -438,9 +388,9 @@
   </sheetPr>
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,98 +402,54 @@
     <col min="6" max="6" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
